--- a/doc/50_単体テスト(UT)/02_エビデンス/RKK_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_表紙.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/RKK_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_表紙.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\EB研修\pethotel\50_単体テスト(UT)\01_UCL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\colpro-workspace\certificate-online\doc\50_単体テスト(UT)\02_エビデンス\RKK_USER02_会員登録画面_エビデンス\打鍵後のUCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92D4A43-96EE-41BE-B032-FFF517C81FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B995E032-51B5-46CC-BB7F-0BF6223533B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -384,6 +384,17 @@
   <si>
     <t>UT-USER02-E-001～
 UT-USER02-E-024</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EB李</t>
+    <rPh sb="2" eb="3">
+      <t>リ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A-画面レイアウト.xlsx</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -887,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF5F290-89E5-44A4-9863-B4AF1EE4D699}">
   <dimension ref="B2:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -962,9 +973,15 @@
       <c r="H3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="I3" s="11">
+        <v>45069</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="2:12" ht="48" customHeight="1" x14ac:dyDescent="0.45">
